--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Url</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>httpbin2</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,7 +546,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
